--- a/qms/src/main/resources/report/template/iqc_electronic_report_btp_new_ver2.xlsx
+++ b/qms/src/main/resources/report/template/iqc_electronic_report_btp_new_ver2.xlsx
@@ -52,7 +52,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="V23")</t>
+jx:area(lastCell="V24")</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,11 +100,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="data2" var="item2" lastCell="V8")</t>
+jx:each(items="data2" var="item2" lastCell="V9")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="data3" var="item3" lastCell="V13")</t>
+jx:each(items="data3" var="item3" lastCell="V14")</t>
         </r>
       </text>
     </comment>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>BIÊN BẢN KIỂM TRA</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>Đánh giá</t>
-  </si>
-  <si>
-    <t>Nội dung đánh giá</t>
   </si>
   <si>
     <t>$[ROW()-ROW(A6)]</t>
@@ -496,12 +493,6 @@
     <t>Bậc rút nghiệm/ số mẫu kiểm tra</t>
   </si>
   <si>
-    <t>Yêu cầu kỹ thuật/ Mức chấp nhận</t>
-  </si>
-  <si>
-    <t>Số lỗi thực tế</t>
-  </si>
-  <si>
     <t>Thông số kiểm tra</t>
   </si>
   <si>
@@ -536,6 +527,36 @@
   </si>
   <si>
     <t>${item2.acceptanceLevel}</t>
+  </si>
+  <si>
+    <t>Yêu cầu kiểm tra</t>
+  </si>
+  <si>
+    <t>${item2.min}</t>
+  </si>
+  <si>
+    <t>${item2.max}</t>
+  </si>
+  <si>
+    <t>${item2.unit}</t>
+  </si>
+  <si>
+    <t>Yêu cầu chi tiết/Lưu ý</t>
+  </si>
+  <si>
+    <t>Kết quả kiểm tra</t>
+  </si>
+  <si>
+    <t>${item2.minAudit}</t>
+  </si>
+  <si>
+    <t>${item2.maxAudit}</t>
+  </si>
+  <si>
+    <t>Sai lỗi thực tế</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
   </si>
 </sst>
 </file>
@@ -758,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -830,91 +851,106 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -922,27 +958,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -972,9 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:I8"/>
+      <selection activeCell="R7" sqref="R7:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,35 +1390,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="61" t="str">
+      <c r="S1" s="54"/>
+      <c r="T1" s="55" t="str">
         <f>CONCATENATE(LEFT(O2,14),"/IQC-LED")</f>
         <v>${data.reportC/IQC-LED</v>
       </c>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1416,12 +1428,12 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="65"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="1"/>
       <c r="K2" s="24"/>
       <c r="L2" s="1"/>
@@ -1439,85 +1451,85 @@
       <c r="V2" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="L4" s="58"/>
+      <c r="M4" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="60"/>
+      <c r="O4" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="30" t="s">
+      <c r="P4" s="60"/>
+      <c r="Q4" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="32"/>
+      <c r="R4" s="60"/>
       <c r="S4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
     <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="57" t="s">
+      <c r="L5" s="40"/>
+      <c r="M5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="57" t="s">
+      <c r="N5" s="63"/>
+      <c r="O5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="33" t="s">
+      <c r="P5" s="63"/>
+      <c r="Q5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="35"/>
+      <c r="R5" s="40"/>
       <c r="S5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U5" s="19"/>
       <c r="V5" s="20"/>
@@ -1527,428 +1539,476 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="29" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" s="28" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
+      <c r="R7" s="31" t="s">
+        <v>107</v>
+      </c>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="32"/>
-    </row>
-    <row r="8" spans="1:22" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="V7" s="31"/>
+    </row>
+    <row r="8" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="31"/>
+      <c r="N8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+    </row>
+    <row r="9" spans="1:22" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="10" t="s">
+      <c r="F9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="L9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="10" t="s">
+      <c r="N9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="R9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="38"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="54" t="s">
+      <c r="J12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54" t="s">
+      <c r="T12" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55" t="s">
+      <c r="U12" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="54" t="s">
+      <c r="G13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="55" t="s">
+      <c r="H13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+    </row>
+    <row r="14" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="37"/>
+    </row>
+    <row r="17" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="37"/>
+    </row>
+    <row r="18" spans="1:22" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="37"/>
+    </row>
+    <row r="19" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+    </row>
+    <row r="20" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="S11" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="T11" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="U11" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="V11" s="54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-    </row>
-    <row r="13" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="44"/>
-    </row>
-    <row r="16" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="44"/>
-    </row>
-    <row r="17" spans="1:22" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="44"/>
-    </row>
-    <row r="18" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="49" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="37"/>
+    </row>
+    <row r="21" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:22" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-    </row>
-    <row r="19" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="44"/>
-    </row>
-    <row r="20" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:22" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="50" t="s">
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="65">
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:V1"/>
@@ -1961,49 +2021,57 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:I8"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:V17"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="E18:V18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="E19:V19"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="O21:V21"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="M7:V7"/>
-    <mergeCell ref="M8:V8"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:V15"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:V20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O22:V22"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:V8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2035,71 +2103,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
+      <c r="A1" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="64"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>84</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="76"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="13" t="s">
         <v>12</v>
       </c>
@@ -2113,44 +2181,44 @@
         <v>15</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="67"/>
+      <c r="A4" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
@@ -2161,21 +2229,21 @@
     </row>
     <row r="6" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72" t="s">
+      <c r="F6" s="71"/>
+      <c r="G6" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
